--- a/docs/assets/scss/mix.fe.portal-mod.xlsx
+++ b/docs/assets/scss/mix.fe.portal-mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Workspace\Github\mixcore\mix.fe.portal\docs\assets\scss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA4596E-D20F-43F9-9A1A-2A1AB4DA5B72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D118F8-B399-410F-85E6-2163730789F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B6593D25-C062-420D-A76A-1BE0E583F2A4}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,14 +469,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9E79FA-CF03-42E5-AE47-B32751BF0847}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -490,12 +496,12 @@
         <v>5</v>
       </c>
       <c r="D2" t="str">
-        <f>"hsla(var(--primary-color-hue,211), 100%, "&amp;B2&amp;"%, 1)"</f>
-        <v>hsla(var(--primary-color-hue,211), 100%, 0%, 1)</v>
+        <f>"hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), "&amp;B2&amp;"%, 1)"</f>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 0%, 1)</v>
       </c>
       <c r="F2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(F$1,"AAA",A2),"BBB",D2)</f>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#000','hsla(var(--primary-color-hue,211), 100%, 0%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#000','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 0%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,12 +516,12 @@
         <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D25" si="1">"hsla(var(--primary-color-hue,211), 100%, "&amp;B3&amp;"%, 1)"</f>
-        <v>hsla(var(--primary-color-hue,211), 100%, 5%, 1)</v>
+        <f t="shared" ref="D3:D25" si="1">"hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), "&amp;B3&amp;"%, 1)"</f>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 5%, 1)</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F25" si="2">SUBSTITUTE(SUBSTITUTE(F$1,"AAA",A3),"BBB",D3)</f>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#002d5d','hsla(var(--primary-color-hue,211), 100%, 5%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#002d5d','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 5%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -531,11 +537,11 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 10%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 10%, 1)</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#003773','hsla(var(--primary-color-hue,211), 100%, 10%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#003773','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 10%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,11 +557,11 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 15%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 15%, 1)</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#003d80','hsla(var(--primary-color-hue,211), 100%, 15%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#003d80','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 15%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -571,11 +577,11 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 20%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 20%, 1)</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#004085','hsla(var(--primary-color-hue,211), 100%, 20%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#004085','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 20%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,11 +597,11 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 25%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 25%, 1)</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#00448d','hsla(var(--primary-color-hue,211), 100%, 25%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#00448d','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 25%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,11 +617,11 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 30%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 30%, 1)</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#0056b3','hsla(var(--primary-color-hue,211), 100%, 30%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#0056b3','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 30%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,11 +637,11 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 35%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 35%, 1)</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#005cbf','hsla(var(--primary-color-hue,211), 100%, 35%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#005cbf','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 35%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,11 +657,11 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 40%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 40%, 1)</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#0062cc','hsla(var(--primary-color-hue,211), 100%, 40%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#0062cc','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 40%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,11 +677,11 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 45%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 45%, 1)</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#0069d9','hsla(var(--primary-color-hue,211), 100%, 45%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#0069d9','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 45%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,16 +691,16 @@
       <c r="B12">
         <v>50</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 50%, 1)</v>
+      <c r="D12" s="1" t="str">
+        <f>"hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%),var(--primary-color-brightness,50%), 1)"</f>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%),var(--primary-color-brightness,50%), 1)</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#007bff','hsla(var(--primary-color-hue,211), 100%, 50%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#007bff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%),var(--primary-color-brightness,50%), 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,11 +716,11 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 54%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 54%, 1)</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#409cff','hsla(var(--primary-color-hue,211), 100%, 54%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#409cff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 54%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B25" si="3">B13+C14</f>
+        <f t="shared" ref="B14:B24" si="3">B13+C14</f>
         <v>58</v>
       </c>
       <c r="C14">
@@ -730,11 +736,11 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 58%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 58%, 1)</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#4da2ff','hsla(var(--primary-color-hue,211), 100%, 58%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#4da2ff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 58%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,11 +756,11 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 62%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 62%, 1)</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#5aa9ff','hsla(var(--primary-color-hue,211), 100%, 62%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#5aa9ff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 62%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,11 +776,11 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 66%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 66%, 1)</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#7abaff','hsla(var(--primary-color-hue,211), 100%, 66%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#7abaff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 66%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,11 +796,11 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 70%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 70%, 1)</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#80bdff','hsla(var(--primary-color-hue,211), 100%, 70%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#80bdff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 70%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,11 +816,11 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 74%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 74%, 1)</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#9fcdff','hsla(var(--primary-color-hue,211), 100%, 74%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#9fcdff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 74%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,11 +836,11 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 78%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 78%, 1)</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#b8daff','hsla(var(--primary-color-hue,211), 100%, 78%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#b8daff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 78%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,11 +856,11 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 82%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 82%, 1)</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#bdddff','hsla(var(--primary-color-hue,211), 100%, 82%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#bdddff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 82%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -870,11 +876,11 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 86%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 86%, 1)</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#c2e0ff','hsla(var(--primary-color-hue,211), 100%, 86%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#c2e0ff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 86%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,11 +896,11 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 90%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 90%, 1)</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#cce5ff','hsla(var(--primary-color-hue,211), 100%, 90%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#cce5ff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 90%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,11 +916,11 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 94%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 94%, 1)</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#dbedff','hsla(var(--primary-color-hue,211), 100%, 94%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#dbedff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 94%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,11 +936,11 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 98%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 98%, 1)</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#e6f2ff','hsla(var(--primary-color-hue,211), 100%, 98%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#e6f2ff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 98%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,11 +955,11 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
-        <v>hsla(var(--primary-color-hue,211), 100%, 100%, 1)</v>
+        <v>hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 100%, 1)</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
-        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#fff','hsla(var(--primary-color-hue,211), 100%, 100%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
+        <v>((Get-Content -path mix.fe.portal-mod.css -Raw) -replace '#fff','hsla(var(--primary-color-hue,211), var(--primary-color-saturation,100%), 100%, 1)') | Set-Content -Path mix.fe.portal-mod.css</v>
       </c>
     </row>
   </sheetData>
